--- a/9.DynamicPricing_ETN/propuestaDataNuevaRed.xlsx
+++ b/9.DynamicPricing_ETN/propuestaDataNuevaRed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>'HORA_SALIDA_ORIGEN_CORRIDA'</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Target</t>
   </si>
   <si>
-    <t>'VENTA'</t>
-  </si>
-  <si>
     <t>PREDICTORAS</t>
   </si>
   <si>
@@ -235,13 +232,61 @@
   </si>
   <si>
     <t>Indica la oferta restante, información clave en modelos de gestión de ingresos (Revenue Management).</t>
+  </si>
+  <si>
+    <t>BOLETOS_VEND'</t>
+  </si>
+  <si>
+    <t>Variables predictoras</t>
+  </si>
+  <si>
+    <t>Agrupar por dia</t>
+  </si>
+  <si>
+    <t>Proporciones</t>
+  </si>
+  <si>
+    <t>Resta</t>
+  </si>
+  <si>
+    <t>Promedio por dia</t>
+  </si>
+  <si>
+    <t>booleano</t>
+  </si>
+  <si>
+    <t>Extraccion numero</t>
+  </si>
+  <si>
+    <t>Viene en datos</t>
+  </si>
+  <si>
+    <t>Mes bueno</t>
+  </si>
+  <si>
+    <t>Dia bueno</t>
+  </si>
+  <si>
+    <t>Hora buena</t>
+  </si>
+  <si>
+    <t>Preprocesado</t>
+  </si>
+  <si>
+    <t>Procesamiento</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Normalizacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +308,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -308,13 +367,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,12 +387,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.796875" bestFit="1" customWidth="1"/>
@@ -633,30 +696,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="H2" t="s">
         <v>17</v>
       </c>
@@ -677,8 +740,8 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -691,7 +754,7 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -719,8 +782,245 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -730,6 +1030,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -744,33 +1045,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -782,31 +1083,31 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -818,242 +1119,242 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="52.7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="52.7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="52.7" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="52.7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/9.DynamicPricing_ETN/propuestaDataNuevaRed.xlsx
+++ b/9.DynamicPricing_ETN/propuestaDataNuevaRed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="91">
   <si>
     <t>'HORA_SALIDA_ORIGEN_CORRIDA'</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Proporciones</t>
   </si>
   <si>
-    <t>Resta</t>
-  </si>
-  <si>
     <t>Promedio por dia</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Extraccion numero</t>
   </si>
   <si>
-    <t>Viene en datos</t>
-  </si>
-  <si>
     <t>Mes bueno</t>
   </si>
   <si>
@@ -280,13 +274,37 @@
   </si>
   <si>
     <t>Normalizacion</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Se arreglo la hora</t>
+  </si>
+  <si>
+    <t>Suma total de boletos por dia</t>
+  </si>
+  <si>
+    <t>Mes del año</t>
+  </si>
+  <si>
+    <t>hay que extraerlo</t>
+  </si>
+  <si>
+    <t>Ya estaría contemplado en la proporcion de la hora</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +330,38 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,6 +437,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,10 +448,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -696,30 +750,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="H2" t="s">
         <v>17</v>
       </c>
@@ -786,14 +840,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>82</v>
+      <c r="B9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -804,223 +858,300 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>78</v>
+      <c r="A12" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
+      <c r="A13" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>80</v>
+      <c r="A14" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
+      <c r="A15" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
+      <c r="A16" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="15"/>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1070,17 +1201,17 @@
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1106,17 +1237,17 @@
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">

--- a/9.DynamicPricing_ETN/propuestaDataNuevaRed.xlsx
+++ b/9.DynamicPricing_ETN/propuestaDataNuevaRed.xlsx
@@ -439,6 +439,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,12 +454,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,30 +750,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="H2" t="s">
         <v>17</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -927,7 +927,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
@@ -941,7 +941,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -997,7 +997,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
@@ -1011,7 +1011,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B22" t="s">
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B26" t="s">
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B27" t="s">
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B28" t="s">
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
@@ -1201,17 +1201,17 @@
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="26.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1237,17 +1237,17 @@
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" ht="39.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
